--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Plxnc1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Plxnc1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H2">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I2">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J2">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3697093333333333</v>
+        <v>0.3442626666666667</v>
       </c>
       <c r="N2">
-        <v>1.109128</v>
+        <v>1.032788</v>
       </c>
       <c r="O2">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619805</v>
       </c>
       <c r="P2">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619806</v>
       </c>
       <c r="Q2">
-        <v>11.20291977178577</v>
+        <v>20.35731685819911</v>
       </c>
       <c r="R2">
-        <v>100.826277946072</v>
+        <v>183.215851723792</v>
       </c>
       <c r="S2">
-        <v>0.002596158530330361</v>
+        <v>0.002627302956915767</v>
       </c>
       <c r="T2">
-        <v>0.002596158530330361</v>
+        <v>0.002627302956915768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H3">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I3">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J3">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.288284</v>
       </c>
       <c r="O3">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="P3">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="Q3">
-        <v>43.31447913192399</v>
+        <v>84.52650124318399</v>
       </c>
       <c r="R3">
-        <v>389.8303121873159</v>
+        <v>760.7385111886559</v>
       </c>
       <c r="S3">
-        <v>0.01003767381860272</v>
+        <v>0.01090893894322414</v>
       </c>
       <c r="T3">
-        <v>0.01003767381860272</v>
+        <v>0.01090893894322414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H4">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I4">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J4">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.96348666666667</v>
+        <v>20.75887533333333</v>
       </c>
       <c r="N4">
-        <v>74.89046</v>
+        <v>62.276626</v>
       </c>
       <c r="O4">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="P4">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="Q4">
-        <v>756.4427325359488</v>
+        <v>1227.536540259531</v>
       </c>
       <c r="R4">
-        <v>6807.98459282354</v>
+        <v>11047.82886233578</v>
       </c>
       <c r="S4">
-        <v>0.1752976271173072</v>
+        <v>0.1584251207765169</v>
       </c>
       <c r="T4">
-        <v>0.1752976271173072</v>
+        <v>0.1584251207765169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H5">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I5">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J5">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7953290000000001</v>
+        <v>0.3971193333333333</v>
       </c>
       <c r="N5">
-        <v>2.385987</v>
+        <v>1.191358</v>
       </c>
       <c r="O5">
-        <v>0.007197880546279997</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="P5">
-        <v>0.007197880546279998</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="Q5">
-        <v>24.10003258192366</v>
+        <v>23.48289513196356</v>
       </c>
       <c r="R5">
-        <v>216.900293237313</v>
+        <v>211.346056187672</v>
       </c>
       <c r="S5">
-        <v>0.005584928433244267</v>
+        <v>0.003030688191715294</v>
       </c>
       <c r="T5">
-        <v>0.005584928433244267</v>
+        <v>0.003030688191715294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H6">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I6">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J6">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.95513033333333</v>
+        <v>55.48268633333333</v>
       </c>
       <c r="N6">
-        <v>146.865391</v>
+        <v>166.448059</v>
       </c>
       <c r="O6">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="P6">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="Q6">
-        <v>1483.436711204612</v>
+        <v>3280.862943309973</v>
       </c>
       <c r="R6">
-        <v>13350.93040084151</v>
+        <v>29527.76648978976</v>
       </c>
       <c r="S6">
-        <v>0.34377081604193</v>
+        <v>0.4234261799939485</v>
       </c>
       <c r="T6">
-        <v>0.34377081604193</v>
+        <v>0.4234261799939485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H7">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I7">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J7">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.981804</v>
+        <v>28.220223</v>
       </c>
       <c r="N7">
-        <v>101.945412</v>
+        <v>84.660669</v>
       </c>
       <c r="O7">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="P7">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="Q7">
-        <v>1029.715480753932</v>
+        <v>1668.749118173444</v>
       </c>
       <c r="R7">
-        <v>9267.439326785387</v>
+        <v>15018.742063561</v>
       </c>
       <c r="S7">
-        <v>0.2386257050510339</v>
+        <v>0.2153677482679572</v>
       </c>
       <c r="T7">
-        <v>0.2386257050510339</v>
+        <v>0.2153677482679573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.533634</v>
       </c>
       <c r="I8">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J8">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3697093333333333</v>
+        <v>0.3442626666666667</v>
       </c>
       <c r="N8">
-        <v>1.109128</v>
+        <v>1.032788</v>
       </c>
       <c r="O8">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619805</v>
       </c>
       <c r="P8">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619806</v>
       </c>
       <c r="Q8">
-        <v>1.298127601239111</v>
+        <v>1.208778976843556</v>
       </c>
       <c r="R8">
-        <v>11.683148411152</v>
+        <v>10.879010791592</v>
       </c>
       <c r="S8">
-        <v>0.0003008273837595283</v>
+        <v>0.000156004281027811</v>
       </c>
       <c r="T8">
-        <v>0.0003008273837595283</v>
+        <v>0.0001560042810278111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.533634</v>
       </c>
       <c r="I9">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J9">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.288284</v>
       </c>
       <c r="O9">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="P9">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="Q9">
         <v>5.019023793783999</v>
@@ -1013,10 +1013,10 @@
         <v>45.17121414405599</v>
       </c>
       <c r="S9">
-        <v>0.001163105842191203</v>
+        <v>0.0006477521642999972</v>
       </c>
       <c r="T9">
-        <v>0.001163105842191203</v>
+        <v>0.0006477521642999974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>10.533634</v>
       </c>
       <c r="I10">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J10">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.96348666666667</v>
+        <v>20.75887533333333</v>
       </c>
       <c r="N10">
-        <v>74.89046</v>
+        <v>62.276626</v>
       </c>
       <c r="O10">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="P10">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="Q10">
-        <v>87.65207730351555</v>
+        <v>72.88879833765377</v>
       </c>
       <c r="R10">
-        <v>788.8686957316399</v>
+        <v>655.999185038884</v>
       </c>
       <c r="S10">
-        <v>0.02031244468658947</v>
+        <v>0.009406984070271809</v>
       </c>
       <c r="T10">
-        <v>0.02031244468658947</v>
+        <v>0.009406984070271811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>10.533634</v>
       </c>
       <c r="I11">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J11">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7953290000000001</v>
+        <v>0.3971193333333333</v>
       </c>
       <c r="N11">
-        <v>2.385987</v>
+        <v>1.191358</v>
       </c>
       <c r="O11">
-        <v>0.007197880546279997</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="P11">
-        <v>0.007197880546279998</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="Q11">
-        <v>2.792568198528667</v>
+        <v>1.394369903885778</v>
       </c>
       <c r="R11">
-        <v>25.133113786758</v>
+        <v>12.549329134972</v>
       </c>
       <c r="S11">
-        <v>0.0006471482343735312</v>
+        <v>0.0001799565334189891</v>
       </c>
       <c r="T11">
-        <v>0.0006471482343735311</v>
+        <v>0.0001799565334189891</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>10.533634</v>
       </c>
       <c r="I12">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J12">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.95513033333333</v>
+        <v>55.48268633333333</v>
       </c>
       <c r="N12">
-        <v>146.865391</v>
+        <v>166.448059</v>
       </c>
       <c r="O12">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="P12">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="Q12">
-        <v>171.8918084512104</v>
+        <v>194.8114370573784</v>
       </c>
       <c r="R12">
-        <v>1547.026276060894</v>
+        <v>1753.302933516406</v>
       </c>
       <c r="S12">
-        <v>0.03983411413231852</v>
+        <v>0.02514224581692436</v>
       </c>
       <c r="T12">
-        <v>0.03983411413231852</v>
+        <v>0.02514224581692436</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>10.533634</v>
       </c>
       <c r="I13">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J13">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.981804</v>
+        <v>28.220223</v>
       </c>
       <c r="N13">
-        <v>101.945412</v>
+        <v>84.660669</v>
       </c>
       <c r="O13">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="P13">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="Q13">
-        <v>119.317295331912</v>
+        <v>99.087166826794</v>
       </c>
       <c r="R13">
-        <v>1073.855657987208</v>
+        <v>891.7845014411459</v>
       </c>
       <c r="S13">
-        <v>0.02765052507758098</v>
+        <v>0.01278812960518372</v>
       </c>
       <c r="T13">
-        <v>0.02765052507758097</v>
+        <v>0.01278812960518373</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H14">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I14">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J14">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3697093333333333</v>
+        <v>0.3442626666666667</v>
       </c>
       <c r="N14">
-        <v>1.109128</v>
+        <v>1.032788</v>
       </c>
       <c r="O14">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619805</v>
       </c>
       <c r="P14">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619806</v>
       </c>
       <c r="Q14">
-        <v>0.0319038204471111</v>
+        <v>0.04531839317733333</v>
       </c>
       <c r="R14">
-        <v>0.2871343840239999</v>
+        <v>0.407865538596</v>
       </c>
       <c r="S14">
-        <v>7.393373985636672E-06</v>
+        <v>5.84876431539771E-06</v>
       </c>
       <c r="T14">
-        <v>7.393373985636673E-06</v>
+        <v>5.848764315397711E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H15">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I15">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J15">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.288284</v>
       </c>
       <c r="O15">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="P15">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="Q15">
-        <v>0.123351536308</v>
+        <v>0.188168472492</v>
       </c>
       <c r="R15">
-        <v>1.110163826772</v>
+        <v>1.693516252428</v>
       </c>
       <c r="S15">
-        <v>2.8585417885602E-05</v>
+        <v>2.428490884236741E-05</v>
       </c>
       <c r="T15">
-        <v>2.858541788560201E-05</v>
+        <v>2.428490884236741E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H16">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I16">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J16">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.96348666666667</v>
+        <v>20.75887533333333</v>
       </c>
       <c r="N16">
-        <v>74.89046</v>
+        <v>62.276626</v>
       </c>
       <c r="O16">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="P16">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="Q16">
-        <v>2.154207439575555</v>
+        <v>2.732677590004666</v>
       </c>
       <c r="R16">
-        <v>19.38786695618</v>
+        <v>24.594098310042</v>
       </c>
       <c r="S16">
-        <v>0.0004992148595440417</v>
+        <v>0.0003526777110425075</v>
       </c>
       <c r="T16">
-        <v>0.0004992148595440417</v>
+        <v>0.0003526777110425075</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H17">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I17">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J17">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7953290000000001</v>
+        <v>0.3971193333333333</v>
       </c>
       <c r="N17">
-        <v>2.385987</v>
+        <v>1.191358</v>
       </c>
       <c r="O17">
-        <v>0.007197880546279997</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="P17">
-        <v>0.007197880546279998</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="Q17">
-        <v>0.06863238583566666</v>
+        <v>0.05227639192066666</v>
       </c>
       <c r="R17">
-        <v>0.617691472521</v>
+        <v>0.4704875272859999</v>
       </c>
       <c r="S17">
-        <v>1.590483173796648E-05</v>
+        <v>6.746759409737124E-06</v>
       </c>
       <c r="T17">
-        <v>1.590483173796649E-05</v>
+        <v>6.746759409737124E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H18">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I18">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J18">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.95513033333333</v>
+        <v>55.48268633333333</v>
       </c>
       <c r="N18">
-        <v>146.865391</v>
+        <v>166.448059</v>
       </c>
       <c r="O18">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="P18">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="Q18">
-        <v>4.224550335361443</v>
+        <v>7.303685346233665</v>
       </c>
       <c r="R18">
-        <v>38.020953018253</v>
+        <v>65.73316811610299</v>
       </c>
       <c r="S18">
-        <v>0.0009789949953564947</v>
+        <v>0.0009426091974794563</v>
       </c>
       <c r="T18">
-        <v>0.0009789949953564949</v>
+        <v>0.0009426091974794563</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H19">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I19">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J19">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.981804</v>
+        <v>28.220223</v>
       </c>
       <c r="N19">
-        <v>101.945412</v>
+        <v>84.660669</v>
       </c>
       <c r="O19">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="P19">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="Q19">
-        <v>2.932437121644</v>
+        <v>3.714881935497</v>
       </c>
       <c r="R19">
-        <v>26.391934094796</v>
+        <v>33.433937419473</v>
       </c>
       <c r="S19">
-        <v>0.0006795613824876956</v>
+        <v>0.0004794404076779524</v>
       </c>
       <c r="T19">
-        <v>0.0006795613824876956</v>
+        <v>0.0004794404076779525</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H20">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I20">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J20">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3697093333333333</v>
+        <v>0.3442626666666667</v>
       </c>
       <c r="N20">
-        <v>1.109128</v>
+        <v>1.032788</v>
       </c>
       <c r="O20">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619805</v>
       </c>
       <c r="P20">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619806</v>
       </c>
       <c r="Q20">
-        <v>0.9248050985911109</v>
+        <v>2.509152823043111</v>
       </c>
       <c r="R20">
-        <v>8.323245887319999</v>
+        <v>22.582375407388</v>
       </c>
       <c r="S20">
-        <v>0.0002143138301897887</v>
+        <v>0.0003238297402970174</v>
       </c>
       <c r="T20">
-        <v>0.0002143138301897887</v>
+        <v>0.0003238297402970174</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H21">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I21">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J21">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.288284</v>
       </c>
       <c r="O21">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="P21">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="Q21">
-        <v>3.57562599394</v>
+        <v>10.418362630676</v>
       </c>
       <c r="R21">
-        <v>32.18063394546</v>
+        <v>93.765263676084</v>
       </c>
       <c r="S21">
-        <v>0.0008286136216753954</v>
+        <v>0.001344587557213924</v>
       </c>
       <c r="T21">
-        <v>0.0008286136216753956</v>
+        <v>0.001344587557213925</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H22">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I22">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J22">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.96348666666667</v>
+        <v>20.75887533333333</v>
       </c>
       <c r="N22">
-        <v>74.89046</v>
+        <v>62.276626</v>
       </c>
       <c r="O22">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="P22">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="Q22">
-        <v>62.44462248165556</v>
+        <v>151.3007238053696</v>
       </c>
       <c r="R22">
-        <v>562.0016023349</v>
+        <v>1361.706514248326</v>
       </c>
       <c r="S22">
-        <v>0.01447088282621588</v>
+        <v>0.01952677957543511</v>
       </c>
       <c r="T22">
-        <v>0.01447088282621588</v>
+        <v>0.01952677957543511</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H23">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I23">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J23">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7953290000000001</v>
+        <v>0.3971193333333333</v>
       </c>
       <c r="N23">
-        <v>2.385987</v>
+        <v>1.191358</v>
       </c>
       <c r="O23">
-        <v>0.007197880546279997</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="P23">
-        <v>0.007197880546279998</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="Q23">
-        <v>1.989466448211667</v>
+        <v>2.894397774717556</v>
       </c>
       <c r="R23">
-        <v>17.905198033905</v>
+        <v>26.049579972458</v>
       </c>
       <c r="S23">
-        <v>0.0004610378718714554</v>
+        <v>0.0003735492199180993</v>
       </c>
       <c r="T23">
-        <v>0.0004610378718714554</v>
+        <v>0.0003735492199180993</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H24">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I24">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J24">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.95513033333333</v>
+        <v>55.48268633333333</v>
       </c>
       <c r="N24">
-        <v>146.865391</v>
+        <v>166.448059</v>
       </c>
       <c r="O24">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="P24">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="Q24">
-        <v>122.4582396291294</v>
+        <v>404.3846531232899</v>
       </c>
       <c r="R24">
-        <v>1102.124156662165</v>
+        <v>3639.461878109609</v>
       </c>
       <c r="S24">
-        <v>0.02837840579944869</v>
+        <v>0.05218963787235388</v>
       </c>
       <c r="T24">
-        <v>0.02837840579944869</v>
+        <v>0.05218963787235388</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H25">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I25">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J25">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.981804</v>
+        <v>28.220223</v>
       </c>
       <c r="N25">
-        <v>101.945412</v>
+        <v>84.660669</v>
       </c>
       <c r="O25">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="P25">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="Q25">
-        <v>85.00338716142001</v>
+        <v>205.682634405191</v>
       </c>
       <c r="R25">
-        <v>765.03048445278</v>
+        <v>1851.143709646719</v>
       </c>
       <c r="S25">
-        <v>0.01969863867470306</v>
+        <v>0.02654527594786321</v>
       </c>
       <c r="T25">
-        <v>0.01969863867470306</v>
+        <v>0.02654527594786321</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H26">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I26">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J26">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3697093333333333</v>
+        <v>0.3442626666666667</v>
       </c>
       <c r="N26">
-        <v>1.109128</v>
+        <v>1.032788</v>
       </c>
       <c r="O26">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619805</v>
       </c>
       <c r="P26">
-        <v>0.003345940633597098</v>
+        <v>0.003228493761619806</v>
       </c>
       <c r="Q26">
-        <v>0.8923215739093333</v>
+        <v>0.8949989332426666</v>
       </c>
       <c r="R26">
-        <v>8.030894165184</v>
+        <v>8.054990399184</v>
       </c>
       <c r="S26">
-        <v>0.0002067861158603348</v>
+        <v>0.0001155080190638116</v>
       </c>
       <c r="T26">
-        <v>0.0002067861158603348</v>
+        <v>0.0001155080190638116</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H27">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I27">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J27">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.288284</v>
       </c>
       <c r="O27">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="P27">
-        <v>0.01293659855670788</v>
+        <v>0.01340516944625037</v>
       </c>
       <c r="Q27">
-        <v>3.450033114528</v>
+        <v>3.716164019567999</v>
       </c>
       <c r="R27">
-        <v>31.050298030752</v>
+        <v>33.445476176112</v>
       </c>
       <c r="S27">
-        <v>0.0007995087961588024</v>
+        <v>0.0004796058726699362</v>
       </c>
       <c r="T27">
-        <v>0.0007995087961588025</v>
+        <v>0.0004796058726699362</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H28">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I28">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J28">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.96348666666667</v>
+        <v>20.75887533333333</v>
       </c>
       <c r="N28">
-        <v>74.89046</v>
+        <v>62.276626</v>
       </c>
       <c r="O28">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="P28">
-        <v>0.2259243596616244</v>
+        <v>0.194676640835999</v>
       </c>
       <c r="Q28">
-        <v>60.25127229498668</v>
+        <v>53.96801070108533</v>
       </c>
       <c r="R28">
-        <v>542.26145065488</v>
+        <v>485.712096309768</v>
       </c>
       <c r="S28">
-        <v>0.01396259704776525</v>
+        <v>0.006965078702732663</v>
       </c>
       <c r="T28">
-        <v>0.01396259704776525</v>
+        <v>0.006965078702732664</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H29">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I29">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J29">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7953290000000001</v>
+        <v>0.3971193333333333</v>
       </c>
       <c r="N29">
-        <v>2.385987</v>
+        <v>1.191358</v>
       </c>
       <c r="O29">
-        <v>0.007197880546279997</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="P29">
-        <v>0.007197880546279998</v>
+        <v>0.0037241833472657</v>
       </c>
       <c r="Q29">
-        <v>1.919586986504001</v>
+        <v>1.032413369549333</v>
       </c>
       <c r="R29">
-        <v>17.276282878536</v>
+        <v>9.291720325943999</v>
       </c>
       <c r="S29">
-        <v>0.0004448440434496765</v>
+        <v>0.0001332426428035806</v>
       </c>
       <c r="T29">
-        <v>0.0004448440434496765</v>
+        <v>0.0001332426428035806</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H30">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I30">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J30">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>48.95513033333333</v>
+        <v>55.48268633333333</v>
       </c>
       <c r="N30">
-        <v>146.865391</v>
+        <v>166.448059</v>
       </c>
       <c r="O30">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="P30">
-        <v>0.4430533530990342</v>
+        <v>0.5203163864367375</v>
       </c>
       <c r="Q30">
-        <v>118.1569276494053</v>
+        <v>144.2414466912013</v>
       </c>
       <c r="R30">
-        <v>1063.412348844648</v>
+        <v>1298.173020220812</v>
       </c>
       <c r="S30">
-        <v>0.02738162210240782</v>
+        <v>0.01861571355603128</v>
       </c>
       <c r="T30">
-        <v>0.02738162210240782</v>
+        <v>0.01861571355603128</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,14 +2326,14 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H31">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I31">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J31">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>33.981804</v>
+        <v>28.220223</v>
       </c>
       <c r="N31">
-        <v>101.945412</v>
+        <v>84.660669</v>
       </c>
       <c r="O31">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="P31">
-        <v>0.3075418675027565</v>
+        <v>0.2646491261721275</v>
       </c>
       <c r="Q31">
-        <v>82.01766657110402</v>
+        <v>73.36569406558799</v>
       </c>
       <c r="R31">
-        <v>738.1589991399361</v>
+        <v>660.291246590292</v>
       </c>
       <c r="S31">
-        <v>0.01900672941018672</v>
+        <v>0.009468531943445354</v>
       </c>
       <c r="T31">
-        <v>0.01900672941018672</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.716467</v>
-      </c>
-      <c r="I32">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J32">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.3697093333333333</v>
-      </c>
-      <c r="N32">
-        <v>1.109128</v>
-      </c>
-      <c r="O32">
-        <v>0.003345940633597098</v>
-      </c>
-      <c r="P32">
-        <v>0.003345940633597098</v>
-      </c>
-      <c r="Q32">
-        <v>0.08829484564177777</v>
-      </c>
-      <c r="R32">
-        <v>0.7946536107759998</v>
-      </c>
-      <c r="S32">
-        <v>2.046139947144907E-05</v>
-      </c>
-      <c r="T32">
-        <v>2.046139947144907E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.716467</v>
-      </c>
-      <c r="I33">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J33">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.429428</v>
-      </c>
-      <c r="N33">
-        <v>4.288284</v>
-      </c>
-      <c r="O33">
-        <v>0.01293659855670788</v>
-      </c>
-      <c r="P33">
-        <v>0.01293659855670788</v>
-      </c>
-      <c r="Q33">
-        <v>0.341379330292</v>
-      </c>
-      <c r="R33">
-        <v>3.072413972628</v>
-      </c>
-      <c r="S33">
-        <v>7.911106019415569E-05</v>
-      </c>
-      <c r="T33">
-        <v>7.911106019415571E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.716467</v>
-      </c>
-      <c r="I34">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J34">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>24.96348666666667</v>
-      </c>
-      <c r="N34">
-        <v>74.89046</v>
-      </c>
-      <c r="O34">
-        <v>0.2259243596616244</v>
-      </c>
-      <c r="P34">
-        <v>0.2259243596616244</v>
-      </c>
-      <c r="Q34">
-        <v>5.961838133868889</v>
-      </c>
-      <c r="R34">
-        <v>53.65654320482</v>
-      </c>
-      <c r="S34">
-        <v>0.001381593124202597</v>
-      </c>
-      <c r="T34">
-        <v>0.001381593124202597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.716467</v>
-      </c>
-      <c r="I35">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J35">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.7953290000000001</v>
-      </c>
-      <c r="N35">
-        <v>2.385987</v>
-      </c>
-      <c r="O35">
-        <v>0.007197880546279997</v>
-      </c>
-      <c r="P35">
-        <v>0.007197880546279998</v>
-      </c>
-      <c r="Q35">
-        <v>0.1899423275476667</v>
-      </c>
-      <c r="R35">
-        <v>1.709480947929</v>
-      </c>
-      <c r="S35">
-        <v>4.401713160310115E-05</v>
-      </c>
-      <c r="T35">
-        <v>4.401713160310115E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.716467</v>
-      </c>
-      <c r="I36">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J36">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>48.95513033333333</v>
-      </c>
-      <c r="N36">
-        <v>146.865391</v>
-      </c>
-      <c r="O36">
-        <v>0.4430533530990342</v>
-      </c>
-      <c r="P36">
-        <v>0.4430533530990342</v>
-      </c>
-      <c r="Q36">
-        <v>11.69157845484411</v>
-      </c>
-      <c r="R36">
-        <v>105.224206093597</v>
-      </c>
-      <c r="S36">
-        <v>0.002709400027572617</v>
-      </c>
-      <c r="T36">
-        <v>0.002709400027572617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.716467</v>
-      </c>
-      <c r="I37">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J37">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>33.981804</v>
-      </c>
-      <c r="N37">
-        <v>101.945412</v>
-      </c>
-      <c r="O37">
-        <v>0.3075418675027565</v>
-      </c>
-      <c r="P37">
-        <v>0.3075418675027565</v>
-      </c>
-      <c r="Q37">
-        <v>8.115613722156001</v>
-      </c>
-      <c r="R37">
-        <v>73.040523499404</v>
-      </c>
-      <c r="S37">
-        <v>0.001880707906764105</v>
-      </c>
-      <c r="T37">
-        <v>0.001880707906764105</v>
+        <v>0.009468531943445355</v>
       </c>
     </row>
   </sheetData>
